--- a/docs/uc_page_htmls/downloaded_excels/UC567-order_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC567-order_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>UC567-1318</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -556,6 +561,11 @@
           <t>UC567-1132</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -608,6 +618,11 @@
           <t>UC567-1186</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Dry cleaning</t>
@@ -620,17 +635,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Jacket Normal Short; Sweater / Cardigan - Full Sleeve</t>
+          <t>Jacket Normal Short</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>253.39; 168.64</t>
+          <t>253.39</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2; 1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -657,7 +672,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UC567-1289</t>
+          <t>UC567-1186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>APP</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -672,32 +692,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Blanket</t>
+          <t>Sweater / Cardigan - Full Sleeve</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>169.49</t>
+          <t>168.64</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>169.49</t>
         </is>
       </c>
     </row>
@@ -709,7 +714,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UC567-1312</t>
+          <t>UC567-1289</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>APP</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -724,12 +734,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Blazer / Coat - Short</t>
+          <t>Blanket</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>169.49</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -749,7 +759,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>299.00</t>
+          <t>169.49</t>
         </is>
       </c>
     </row>
@@ -761,7 +771,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UC567-1277</t>
+          <t>UC567-1312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -776,17 +791,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Shoes Sports; Shoes Leather / Suede / Nubuck; crocs</t>
+          <t>Blazer / Coat - Short</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>349.00; 549.00; 300.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2; 9; 1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -801,7 +816,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>5939.00</t>
+          <t>299.00</t>
         </is>
       </c>
     </row>
@@ -813,39 +828,44 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UC567-1320</t>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>Shoes Sports</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -853,7 +873,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>247.50</t>
+          <t>5939.00</t>
         </is>
       </c>
     </row>
@@ -865,47 +885,1441 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Shoes Leather / Suede / Nubuck</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>crocs</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UC567-1320</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>247.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>UC567-1240</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Dry cleaning</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>999712</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Quilt ( Double )</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>549.00</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>549.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UC567-1293</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UCLEAN STORE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>439.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UC567-1279</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UC567-1292</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>498.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UC567-1292</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sweatshirt / Jumper</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UC567-1276</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Towel 10RS pc</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>338.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UC567-1268</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>UCLEAN STORE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>139.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>383.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UC567-1271</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>239.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UC567-1274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Trousers</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>109.32</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>109.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UC567-1264</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.335</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>132.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC567-1247</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>536.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC567-1257</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC567-1236</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>275.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Saree ( Silk / Chiffon / Georgette / Heavy )</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Blouse</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>KURTA PAJAMI</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Dress / Frock / Jumpsuit Short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Dress ( Heavy )</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>449.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Choli + Lehenga + Dupatta</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>699.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Suit 2 Pc</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>359.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC567-1242</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Shoes Leather / Suede / Nubuck</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>465.25</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>465.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC567-1239</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC567-1243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Shoes Leather / Suede / Nubuck</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC567-1198</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Kurta Payjama ( Light )</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1794.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC567-1198</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Jacket Puffer Long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/docs/uc_page_htmls/downloaded_excels/UC567-order_details.xlsx
+++ b/docs/uc_page_htmls/downloaded_excels/UC567-order_details.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UC567-1186</t>
+          <t>UC567-1318</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Jacket Normal Short</t>
+          <t>Blazer / Coat - Short</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>675.42</t>
+          <t>253.39</t>
         </is>
       </c>
     </row>
@@ -558,12 +558,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UC567-1186</t>
+          <t>UC567-1132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>WALK-IN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -578,17 +578,32 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Sweater / Cardigan - Full Sleeve</t>
+          <t>Blazer / Coat - Short</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>168.64</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>897.00</t>
         </is>
       </c>
     </row>
@@ -600,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UC567-1289</t>
+          <t>UC567-1186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,17 +635,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Blanket</t>
+          <t>Jacket Normal Short</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>169.49</t>
+          <t>253.39</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -645,7 +660,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>169.49</t>
+          <t>675.42</t>
         </is>
       </c>
     </row>
@@ -657,52 +672,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UC567-1293</t>
+          <t>UC567-1186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UCLEAN STORE</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Laundry - Wash &amp; Fold</t>
+          <t>Dry cleaning</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>999711</t>
+          <t>999712</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Sweater / Cardigan - Full Sleeve</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>99.00</t>
+          <t>168.64</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>439.56</t>
         </is>
       </c>
     </row>
@@ -714,52 +714,1612 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>UC567-1289</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>APP</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Blanket</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>169.49</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>169.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UC567-1312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Shoes Sports</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5939.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Shoes Leather / Suede / Nubuck</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>UC567-1277</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>crocs</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>300.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>UC567-1320</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>247.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UC567-1240</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Quilt ( Double )</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>UC567-1293</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UCLEAN STORE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>439.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UC567-1279</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>UC567-1292</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Jacket Normal Short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>498.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UC567-1292</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sweatshirt / Jumper</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>UC567-1276</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Towel 10RS pc</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>338.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>UC567-1268</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>UCLEAN STORE</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Laundry - Wash &amp; Iron</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>999711</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>139.00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>383.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UC567-1271</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>239.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>UC567-1274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Trousers</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>109.32</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>109.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>UC567-1264</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.335</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>132.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>UC567-1247</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Fold</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>536.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>UC567-1257</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Blazer / Coat - Short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>253.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UC567-1236</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Laundry - Wash &amp; Iron</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>999711</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>117.80</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>275.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Saree ( Silk / Chiffon / Georgette / Heavy )</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2950.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Blouse</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>KURTA PAJAMI</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Dress / Frock / Jumpsuit Short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>149.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Dress ( Heavy )</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>449.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Choli + Lehenga + Dupatta</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>699.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UC567-1147</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Suit 2 Pc</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>359.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>UC567-1242</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Shoes Leather / Suede / Nubuck</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>465.25</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>465.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UC567-1239</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CAP</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>UC567-1243</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Shoes Leather / Suede / Nubuck</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>549.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UC567-1198</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Kurta Payjama ( Light )</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1794.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UC567</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UC567-1198</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>WALK-IN</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dry cleaning</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>999712</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Jacket Puffer Long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>399.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
